--- a/Code/Results/Cases/Case_3_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.72978778043485</v>
+        <v>16.11739948516318</v>
       </c>
       <c r="C2">
-        <v>13.99937367671366</v>
+        <v>12.40874363839383</v>
       </c>
       <c r="D2">
-        <v>4.746719356169634</v>
+        <v>4.157876949939991</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.27473138260853</v>
+        <v>19.61730800570504</v>
       </c>
       <c r="G2">
-        <v>16.28591539075994</v>
+        <v>20.72052726873432</v>
       </c>
       <c r="H2">
-        <v>7.005613519854359</v>
+        <v>12.27752810465199</v>
       </c>
       <c r="I2">
-        <v>10.18773687207065</v>
+        <v>18.850489163605</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.105965596799761</v>
+        <v>10.62282586774521</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.84474574711921</v>
+        <v>17.6074171831723</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.1128389554877</v>
+        <v>15.34727538472584</v>
       </c>
       <c r="C3">
-        <v>13.47839196035166</v>
+        <v>12.22216403410595</v>
       </c>
       <c r="D3">
-        <v>4.525298308406493</v>
+        <v>4.070962645895609</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.9371931150726</v>
+        <v>19.67037378197129</v>
       </c>
       <c r="G3">
-        <v>15.82271075697484</v>
+        <v>20.80190060518364</v>
       </c>
       <c r="H3">
-        <v>7.082481021923084</v>
+        <v>12.33574090555192</v>
       </c>
       <c r="I3">
-        <v>10.5606825895328</v>
+        <v>19.00274389634443</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.810982373968709</v>
+        <v>10.59345767434859</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.8528857544249</v>
+        <v>17.70264518303635</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.06088224903301</v>
+        <v>14.85359995396853</v>
       </c>
       <c r="C4">
-        <v>13.14964867659391</v>
+        <v>12.10679617159572</v>
       </c>
       <c r="D4">
-        <v>4.383331366668981</v>
+        <v>4.016155791471808</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.74680493934147</v>
+        <v>19.7103568903177</v>
       </c>
       <c r="G4">
-        <v>15.56747586553117</v>
+        <v>20.86303425462961</v>
       </c>
       <c r="H4">
-        <v>7.136489204854941</v>
+        <v>12.37406142743497</v>
       </c>
       <c r="I4">
-        <v>10.80108186063532</v>
+        <v>19.10136351989577</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>7.628950924759883</v>
+        <v>10.57755469158885</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.87450276874445</v>
+        <v>17.76649962807697</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.61728354569368</v>
+        <v>14.64740130350778</v>
       </c>
       <c r="C5">
-        <v>13.01362076676293</v>
+        <v>12.05962789835149</v>
       </c>
       <c r="D5">
-        <v>4.324010784407173</v>
+        <v>3.993478285683502</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.67348282808341</v>
+        <v>19.72850226711406</v>
       </c>
       <c r="G5">
-        <v>15.47081678166532</v>
+        <v>20.89073142647934</v>
       </c>
       <c r="H5">
-        <v>7.160131740392238</v>
+        <v>12.39032500870851</v>
       </c>
       <c r="I5">
-        <v>10.90180004910831</v>
+        <v>19.14284419241717</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>7.554651397411062</v>
+        <v>10.57161434807081</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.88728803792112</v>
+        <v>17.79386939389528</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.54272216684764</v>
+        <v>14.61286576428441</v>
       </c>
       <c r="C6">
-        <v>12.99091407826788</v>
+        <v>12.05178770451731</v>
       </c>
       <c r="D6">
-        <v>4.314073439278014</v>
+        <v>3.989692548845921</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>13.66156539758063</v>
+        <v>19.7316268648973</v>
       </c>
       <c r="G6">
-        <v>15.45520992565312</v>
+        <v>20.8954979703439</v>
       </c>
       <c r="H6">
-        <v>7.164154008803564</v>
+        <v>12.39306466643673</v>
       </c>
       <c r="I6">
-        <v>10.91868753554104</v>
+        <v>19.14981012059033</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>7.542310106885464</v>
+        <v>10.57066071954825</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.88964514965623</v>
+        <v>17.79849541667643</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.05496017757418</v>
+        <v>14.85083911396882</v>
       </c>
       <c r="C7">
-        <v>13.14782227468732</v>
+        <v>12.106160607028</v>
       </c>
       <c r="D7">
-        <v>4.382537227749926</v>
+        <v>4.015851318592535</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13.74579881984364</v>
+        <v>19.71059411936096</v>
       </c>
       <c r="G7">
-        <v>15.56614254456396</v>
+        <v>20.86339654640063</v>
       </c>
       <c r="H7">
-        <v>7.136801542713518</v>
+        <v>12.37427814210277</v>
       </c>
       <c r="I7">
-        <v>10.80242917035896</v>
+        <v>19.10191770828803</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>7.62794923190673</v>
+        <v>10.57747238457478</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.87465936763756</v>
+        <v>17.76686329308633</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.18450875123796</v>
+        <v>15.85629808547025</v>
       </c>
       <c r="C8">
-        <v>13.82167091809102</v>
+        <v>12.34460709479525</v>
       </c>
       <c r="D8">
-        <v>4.671645637584662</v>
+        <v>4.128219152552763</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.15486901661507</v>
+        <v>19.63406399010499</v>
       </c>
       <c r="G8">
-        <v>16.12017318499779</v>
+        <v>20.74625253038363</v>
       </c>
       <c r="H8">
-        <v>7.030655011955592</v>
+        <v>12.29706458475035</v>
       </c>
       <c r="I8">
-        <v>10.31388463222054</v>
+        <v>18.90192164396071</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.004506724589319</v>
+        <v>10.61226086099594</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.84398298056122</v>
+        <v>17.63913115623873</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.8937779988602</v>
+        <v>17.65513741323782</v>
       </c>
       <c r="C9">
-        <v>15.06650923912262</v>
+        <v>12.80373284173752</v>
       </c>
       <c r="D9">
-        <v>5.189306880955128</v>
+        <v>4.33635116113961</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.08882004167458</v>
+        <v>19.54306570943433</v>
       </c>
       <c r="G9">
-        <v>17.4348871322568</v>
+        <v>20.60614264024513</v>
       </c>
       <c r="H9">
-        <v>6.880288612710994</v>
+        <v>12.16612410371972</v>
       </c>
       <c r="I9">
-        <v>9.452808249271436</v>
+        <v>18.55041431573449</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.731435025686769</v>
+        <v>10.69713949477577</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.92435760881687</v>
+        <v>17.43160432607836</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.33840572795728</v>
+        <v>18.86301971143238</v>
       </c>
       <c r="C10">
-        <v>15.92727400906991</v>
+        <v>13.13321503839212</v>
       </c>
       <c r="D10">
-        <v>5.537956325760366</v>
+        <v>4.480839429995648</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>15.85155115980215</v>
+        <v>19.51264527883372</v>
       </c>
       <c r="G10">
-        <v>18.53298716605778</v>
+        <v>20.55901718096955</v>
       </c>
       <c r="H10">
-        <v>6.810472042099954</v>
+        <v>12.0824355761605</v>
       </c>
       <c r="I10">
-        <v>8.890573755834568</v>
+        <v>18.31688574176044</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.253537909828992</v>
+        <v>10.7693070421408</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.08010858358398</v>
+        <v>17.30564005508784</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.39057715629706</v>
+        <v>19.38653059768695</v>
       </c>
       <c r="C11">
-        <v>16.30600274710211</v>
+        <v>13.28086547781843</v>
       </c>
       <c r="D11">
-        <v>5.689453737954682</v>
+        <v>4.54455651513058</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>16.21416792858306</v>
+        <v>19.50678498580144</v>
       </c>
       <c r="G11">
-        <v>19.05929011542316</v>
+        <v>20.54990078391902</v>
       </c>
       <c r="H11">
-        <v>6.788789412205419</v>
+        <v>12.04708784652756</v>
       </c>
       <c r="I11">
-        <v>8.653434289625151</v>
+        <v>18.21600122561339</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.487629159542841</v>
+        <v>10.80418303210672</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.17403053307875</v>
+        <v>17.25415844920372</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.78047676951038</v>
+        <v>19.5809543991501</v>
       </c>
       <c r="C12">
-        <v>16.44749385364331</v>
+        <v>13.33641316968988</v>
       </c>
       <c r="D12">
-        <v>5.74578641836886</v>
+        <v>4.568381290470139</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>16.35364431423946</v>
+        <v>19.50571668609848</v>
       </c>
       <c r="G12">
-        <v>19.26226527247263</v>
+        <v>20.54823306199669</v>
       </c>
       <c r="H12">
-        <v>6.782135958804965</v>
+        <v>12.03409478585719</v>
       </c>
       <c r="I12">
-        <v>8.566671881909313</v>
+        <v>18.17856727409005</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.575727632456072</v>
+        <v>10.81767608760842</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.21306017948485</v>
+        <v>17.23550614243348</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.69688319847123</v>
+        <v>19.5392527714689</v>
       </c>
       <c r="C13">
-        <v>16.4171079547308</v>
+        <v>13.32446685208895</v>
       </c>
       <c r="D13">
-        <v>5.733700437516583</v>
+        <v>4.563263912877935</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>16.32351083092871</v>
+        <v>19.50589553409988</v>
       </c>
       <c r="G13">
-        <v>19.21839016041014</v>
+        <v>20.5485126995455</v>
       </c>
       <c r="H13">
-        <v>6.783497881990512</v>
+        <v>12.03687560997687</v>
       </c>
       <c r="I13">
-        <v>8.585216148653132</v>
+        <v>18.18659515553713</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.556779141435372</v>
+        <v>10.81475751687489</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.20449828164017</v>
+        <v>17.23948568261913</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.42282501592487</v>
+        <v>19.40260292015946</v>
       </c>
       <c r="C14">
-        <v>16.31768229565299</v>
+        <v>13.2854429624154</v>
       </c>
       <c r="D14">
-        <v>5.694109095430834</v>
+        <v>4.546522754263369</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>16.2255999157791</v>
+        <v>19.50667401476216</v>
       </c>
       <c r="G14">
-        <v>19.0759163110651</v>
+        <v>20.54972775358404</v>
       </c>
       <c r="H14">
-        <v>6.788210187222497</v>
+        <v>12.0460110312324</v>
       </c>
       <c r="I14">
-        <v>8.646233111495667</v>
+        <v>18.21290610493212</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.494888313313508</v>
+        <v>10.80528742402182</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.17717134250005</v>
+        <v>17.25260699203801</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.25384739139894</v>
+        <v>19.31840140935991</v>
       </c>
       <c r="C15">
-        <v>16.2565283671683</v>
+        <v>13.26149100621389</v>
       </c>
       <c r="D15">
-        <v>5.669722962175364</v>
+        <v>4.536228381252243</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>16.16590553684532</v>
+        <v>19.50730081959689</v>
       </c>
       <c r="G15">
-        <v>18.98912058610092</v>
+        <v>20.55070472694126</v>
       </c>
       <c r="H15">
-        <v>6.791302680752601</v>
+        <v>12.05165786265295</v>
       </c>
       <c r="I15">
-        <v>8.684015170801128</v>
+        <v>18.22912243725013</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.456905715843874</v>
+        <v>10.79952375462192</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.16088786372523</v>
+        <v>17.26075408065756</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.26844511917026</v>
+        <v>18.82827698910398</v>
       </c>
       <c r="C16">
-        <v>15.90225778296262</v>
+        <v>13.12351706517641</v>
       </c>
       <c r="D16">
-        <v>5.527911321668804</v>
+        <v>4.476633650243159</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>15.82816051345417</v>
+        <v>19.51318914092728</v>
       </c>
       <c r="G16">
-        <v>18.49911574667773</v>
+        <v>20.55986204157333</v>
       </c>
       <c r="H16">
-        <v>6.812101006772848</v>
+        <v>12.08480049135085</v>
       </c>
       <c r="I16">
-        <v>8.906475235470063</v>
+        <v>18.3235863831581</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.23816576243919</v>
+        <v>10.76706832116799</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.07444769048458</v>
+        <v>17.30912210724359</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.64864519036355</v>
+        <v>18.52088648303611</v>
       </c>
       <c r="C17">
-        <v>15.68157545581244</v>
+        <v>13.03827128848008</v>
       </c>
       <c r="D17">
-        <v>5.43908320246469</v>
+        <v>4.439548556953387</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>15.62490862194103</v>
+        <v>19.51884779319383</v>
       </c>
       <c r="G17">
-        <v>18.20524538204227</v>
+        <v>20.5686454263464</v>
       </c>
       <c r="H17">
-        <v>6.82751705301619</v>
+        <v>12.10583034258323</v>
       </c>
       <c r="I17">
-        <v>9.047951046723163</v>
+        <v>18.38290664167744</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.103058026469835</v>
+        <v>10.7476765798525</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.02743789460467</v>
+        <v>17.34028911082967</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.28650939653595</v>
+        <v>18.34164402184527</v>
       </c>
       <c r="C18">
-        <v>15.55344030788613</v>
+        <v>12.98903249317449</v>
       </c>
       <c r="D18">
-        <v>5.387323457779123</v>
+        <v>4.418029657562615</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>15.50948155799671</v>
+        <v>19.52285329920487</v>
       </c>
       <c r="G18">
-        <v>18.03874927940148</v>
+        <v>20.57485654273323</v>
       </c>
       <c r="H18">
-        <v>6.837325777811366</v>
+        <v>12.11818236867165</v>
       </c>
       <c r="I18">
-        <v>9.131051736375698</v>
+        <v>18.41752955225271</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.025028740017458</v>
+        <v>10.73671610875261</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.00256295583739</v>
+        <v>17.35876303149751</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.16292486866865</v>
+        <v>18.28053946908602</v>
       </c>
       <c r="C19">
-        <v>15.5098517149897</v>
+        <v>12.97232676389615</v>
       </c>
       <c r="D19">
-        <v>5.369684244346061</v>
+        <v>4.410711799677371</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>15.4706565317744</v>
+        <v>19.524338314428</v>
       </c>
       <c r="G19">
-        <v>17.98281653134252</v>
+        <v>20.57715817213612</v>
       </c>
       <c r="H19">
-        <v>6.840805360420966</v>
+        <v>12.12240853154669</v>
       </c>
       <c r="I19">
-        <v>9.159475098682545</v>
+        <v>18.42933875768473</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.998556463475582</v>
+        <v>10.73303849185179</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.99450762449879</v>
+        <v>17.3651118388144</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.71520744940605</v>
+        <v>18.55386188191966</v>
       </c>
       <c r="C20">
-        <v>15.70519274626947</v>
+        <v>13.04736766051085</v>
       </c>
       <c r="D20">
-        <v>5.448608376176873</v>
+        <v>4.443515947885595</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15.64639281132124</v>
+        <v>19.51816768492521</v>
       </c>
       <c r="G20">
-        <v>18.23626778077249</v>
+        <v>20.56759035198932</v>
       </c>
       <c r="H20">
-        <v>6.825777740229463</v>
+        <v>12.10356515594841</v>
       </c>
       <c r="I20">
-        <v>9.032709533331971</v>
+        <v>18.37653979468478</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.117473916074076</v>
+        <v>10.74972093072719</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.03221710106847</v>
+        <v>17.33691462574196</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.50355353043961</v>
+        <v>19.44284452629491</v>
       </c>
       <c r="C21">
-        <v>16.34693883615059</v>
+        <v>13.29691544764863</v>
       </c>
       <c r="D21">
-        <v>5.705766247670328</v>
+        <v>4.551448383681305</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.25430075891235</v>
+        <v>19.50641409926993</v>
       </c>
       <c r="G21">
-        <v>19.11766593162551</v>
+        <v>20.54932234594625</v>
       </c>
       <c r="H21">
-        <v>6.786782926630762</v>
+        <v>12.04331708121248</v>
       </c>
       <c r="I21">
-        <v>8.62822530318463</v>
+        <v>18.2051570776172</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.513082380201812</v>
+        <v>10.80806131651893</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.18510285826097</v>
+        <v>17.24873003062708</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.62263300251826</v>
+        <v>20.00156050183576</v>
       </c>
       <c r="C22">
-        <v>16.75510785663798</v>
+        <v>13.45786710680652</v>
       </c>
       <c r="D22">
-        <v>5.867790512855745</v>
+        <v>4.620213566971679</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>16.6641634313413</v>
+        <v>19.50544137144239</v>
       </c>
       <c r="G22">
-        <v>19.71506114261232</v>
+        <v>20.54778821240368</v>
       </c>
       <c r="H22">
-        <v>6.770426938424595</v>
+        <v>12.00622885033451</v>
       </c>
       <c r="I22">
-        <v>8.381794838724673</v>
+        <v>18.09762980124628</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.768429854368781</v>
+        <v>10.84785474139166</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.30526465037675</v>
+        <v>17.196010562283</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.02988030958052</v>
+        <v>19.70542662286219</v>
       </c>
       <c r="C23">
-        <v>16.5383123593701</v>
+        <v>13.37217398132102</v>
       </c>
       <c r="D23">
-        <v>5.781871864681611</v>
+        <v>4.583679134399782</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>16.44429105709159</v>
+        <v>19.50534579551309</v>
       </c>
       <c r="G23">
-        <v>19.39432181800216</v>
+        <v>20.54765148856804</v>
       </c>
       <c r="H23">
-        <v>6.778284562489273</v>
+        <v>12.02581395625722</v>
       </c>
       <c r="I23">
-        <v>8.511541491262177</v>
+        <v>18.15460917541485</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.632455038847832</v>
+        <v>10.82646669056596</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.23923646034346</v>
+        <v>17.22369640994775</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.68513273792456</v>
+        <v>18.53896154535559</v>
       </c>
       <c r="C24">
-        <v>15.69451929374942</v>
+        <v>13.04325590337793</v>
       </c>
       <c r="D24">
-        <v>5.444304197176222</v>
+        <v>4.441722906654066</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>15.6366753634596</v>
+        <v>19.51847281889602</v>
       </c>
       <c r="G24">
-        <v>18.22223489763611</v>
+        <v>20.5680637343395</v>
       </c>
       <c r="H24">
-        <v>6.826561145636339</v>
+        <v>12.1045884317496</v>
       </c>
       <c r="I24">
-        <v>9.039594752142524</v>
+        <v>18.3794166298085</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.110957590828036</v>
+        <v>10.74879609318891</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.03004973130771</v>
+        <v>17.33843850023148</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.93990461855191</v>
+        <v>17.18796805007744</v>
       </c>
       <c r="C25">
-        <v>14.73874886023447</v>
+        <v>12.68071534334377</v>
       </c>
       <c r="D25">
-        <v>5.054732698642456</v>
+        <v>4.281459299898951</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>14.82239673933117</v>
+        <v>19.56131079513816</v>
       </c>
       <c r="G25">
-        <v>17.05538934477808</v>
+        <v>20.63432131975505</v>
       </c>
       <c r="H25">
-        <v>6.914236016940308</v>
+        <v>12.199351828402</v>
       </c>
       <c r="I25">
-        <v>9.674351831914834</v>
+        <v>18.64115931641849</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>8.536566402365093</v>
+        <v>10.67242810983474</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.88638355719847</v>
+        <v>17.48311403341769</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_125/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_125/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.11739948516318</v>
+        <v>24.72978778043488</v>
       </c>
       <c r="C2">
-        <v>12.40874363839383</v>
+        <v>13.99937367671349</v>
       </c>
       <c r="D2">
-        <v>4.157876949939991</v>
+        <v>4.74671935616968</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>19.61730800570504</v>
+        <v>14.27473138260853</v>
       </c>
       <c r="G2">
-        <v>20.72052726873432</v>
+        <v>16.28591539076006</v>
       </c>
       <c r="H2">
-        <v>12.27752810465199</v>
+        <v>7.005613519854253</v>
       </c>
       <c r="I2">
-        <v>18.850489163605</v>
+        <v>10.18773687207065</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>10.62282586774521</v>
+        <v>8.105965596799782</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>17.6074171831723</v>
+        <v>10.84474574711926</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.34727538472584</v>
+        <v>23.11283895548775</v>
       </c>
       <c r="C3">
-        <v>12.22216403410595</v>
+        <v>13.47839196035164</v>
       </c>
       <c r="D3">
-        <v>4.070962645895609</v>
+        <v>4.525298308406575</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>19.67037378197129</v>
+        <v>13.93719311507244</v>
       </c>
       <c r="G3">
-        <v>20.80190060518364</v>
+        <v>15.82271075697471</v>
       </c>
       <c r="H3">
-        <v>12.33574090555192</v>
+        <v>7.082481021923027</v>
       </c>
       <c r="I3">
-        <v>19.00274389634443</v>
+        <v>10.56068258953268</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>10.59345767434859</v>
+        <v>7.810982373968664</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>17.70264518303635</v>
+        <v>10.85288575442477</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.85359995396853</v>
+        <v>22.06088224903302</v>
       </c>
       <c r="C4">
-        <v>12.10679617159572</v>
+        <v>13.14964867659402</v>
       </c>
       <c r="D4">
-        <v>4.016155791471808</v>
+        <v>4.383331366668926</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>19.7103568903177</v>
+        <v>13.74680493934141</v>
       </c>
       <c r="G4">
-        <v>20.86303425462961</v>
+        <v>15.56747586553117</v>
       </c>
       <c r="H4">
-        <v>12.37406142743497</v>
+        <v>7.136489204854884</v>
       </c>
       <c r="I4">
-        <v>19.10136351989577</v>
+        <v>10.80108186063532</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>10.57755469158885</v>
+        <v>7.628950924759886</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.76649962807697</v>
+        <v>10.87450276874438</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.64740130350778</v>
+        <v>21.61728354569369</v>
       </c>
       <c r="C5">
-        <v>12.05962789835149</v>
+        <v>13.01362076676288</v>
       </c>
       <c r="D5">
-        <v>3.993478285683502</v>
+        <v>4.324010784407082</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>19.72850226711406</v>
+        <v>13.67348282808358</v>
       </c>
       <c r="G5">
-        <v>20.89073142647934</v>
+        <v>15.47081678166555</v>
       </c>
       <c r="H5">
-        <v>12.39032500870851</v>
+        <v>7.160131740392245</v>
       </c>
       <c r="I5">
-        <v>19.14284419241717</v>
+        <v>10.90180004910843</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>10.57161434807081</v>
+        <v>7.55465139741101</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.79386939389528</v>
+        <v>10.88728803792126</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.61286576428441</v>
+        <v>21.54272216684762</v>
       </c>
       <c r="C6">
-        <v>12.05178770451731</v>
+        <v>12.99091407826796</v>
       </c>
       <c r="D6">
-        <v>3.989692548845921</v>
+        <v>4.314073439278008</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>19.7316268648973</v>
+        <v>13.66156539758062</v>
       </c>
       <c r="G6">
-        <v>20.8954979703439</v>
+        <v>15.45520992565312</v>
       </c>
       <c r="H6">
-        <v>12.39306466643673</v>
+        <v>7.164154008803561</v>
       </c>
       <c r="I6">
-        <v>19.14981012059033</v>
+        <v>10.91868753554107</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>10.57066071954825</v>
+        <v>7.542310106885458</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.79849541667643</v>
+        <v>10.88964514965622</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.85083911396882</v>
+        <v>22.05496017757411</v>
       </c>
       <c r="C7">
-        <v>12.106160607028</v>
+        <v>13.14782227468746</v>
       </c>
       <c r="D7">
-        <v>4.015851318592535</v>
+        <v>4.382537227750043</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>19.71059411936096</v>
+        <v>13.74579881984364</v>
       </c>
       <c r="G7">
-        <v>20.86339654640063</v>
+        <v>15.56614254456401</v>
       </c>
       <c r="H7">
-        <v>12.37427814210277</v>
+        <v>7.136801542713529</v>
       </c>
       <c r="I7">
-        <v>19.10191770828803</v>
+        <v>10.80242917035904</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>10.57747238457478</v>
+        <v>7.627949231906643</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.76686329308633</v>
+        <v>10.87465936763759</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.85629808547025</v>
+        <v>24.18450875123796</v>
       </c>
       <c r="C8">
-        <v>12.34460709479525</v>
+        <v>13.82167091809091</v>
       </c>
       <c r="D8">
-        <v>4.128219152552763</v>
+        <v>4.67164563758478</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>19.63406399010499</v>
+        <v>14.15486901661496</v>
       </c>
       <c r="G8">
-        <v>20.74625253038363</v>
+        <v>16.12017318499771</v>
       </c>
       <c r="H8">
-        <v>12.29706458475035</v>
+        <v>7.030655011955529</v>
       </c>
       <c r="I8">
-        <v>18.90192164396071</v>
+        <v>10.31388463222041</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>10.61226086099594</v>
+        <v>8.004506724589296</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>17.63913115623873</v>
+        <v>10.84398298056114</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>17.65513741323782</v>
+        <v>27.89377799886015</v>
       </c>
       <c r="C9">
-        <v>12.80373284173752</v>
+        <v>15.06650923912264</v>
       </c>
       <c r="D9">
-        <v>4.33635116113961</v>
+        <v>5.189306880955018</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>19.54306570943433</v>
+        <v>15.08882004167468</v>
       </c>
       <c r="G9">
-        <v>20.60614264024513</v>
+        <v>17.4348871322569</v>
       </c>
       <c r="H9">
-        <v>12.16612410371972</v>
+        <v>6.880288612711063</v>
       </c>
       <c r="I9">
-        <v>18.55041431573449</v>
+        <v>9.452808249271525</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>10.69713949477577</v>
+        <v>8.731435025686803</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>17.43160432607836</v>
+        <v>10.92435760881693</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.86301971143238</v>
+        <v>30.33840572795728</v>
       </c>
       <c r="C10">
-        <v>13.13321503839212</v>
+        <v>15.92727400906997</v>
       </c>
       <c r="D10">
-        <v>4.480839429995648</v>
+        <v>5.5379563257604</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>19.51264527883372</v>
+        <v>15.85155115980213</v>
       </c>
       <c r="G10">
-        <v>20.55901718096955</v>
+        <v>18.53298716605781</v>
       </c>
       <c r="H10">
-        <v>12.0824355761605</v>
+        <v>6.810472042099904</v>
       </c>
       <c r="I10">
-        <v>18.31688574176044</v>
+        <v>8.890573755834573</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.7693070421408</v>
+        <v>9.253537909828967</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>17.30564005508784</v>
+        <v>11.08010858358396</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.38653059768695</v>
+        <v>31.39057715629703</v>
       </c>
       <c r="C11">
-        <v>13.28086547781843</v>
+        <v>16.30600274710202</v>
       </c>
       <c r="D11">
-        <v>4.54455651513058</v>
+        <v>5.689453737954619</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>19.50678498580144</v>
+        <v>16.21416792858314</v>
       </c>
       <c r="G11">
-        <v>20.54990078391902</v>
+        <v>19.05929011542323</v>
       </c>
       <c r="H11">
-        <v>12.04708784652756</v>
+        <v>6.788789412205469</v>
       </c>
       <c r="I11">
-        <v>18.21600122561339</v>
+        <v>8.653434289625302</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.80418303210672</v>
+        <v>9.487629159542838</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>17.25415844920372</v>
+        <v>11.17403053307886</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.5809543991501</v>
+        <v>31.78047676951039</v>
       </c>
       <c r="C12">
-        <v>13.33641316968988</v>
+        <v>16.44749385364321</v>
       </c>
       <c r="D12">
-        <v>4.568381290470139</v>
+        <v>5.745786418368892</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>19.50571668609848</v>
+        <v>16.35364431423945</v>
       </c>
       <c r="G12">
-        <v>20.54823306199669</v>
+        <v>19.26226527247263</v>
       </c>
       <c r="H12">
-        <v>12.03409478585719</v>
+        <v>6.782135958804965</v>
       </c>
       <c r="I12">
-        <v>18.17856727409005</v>
+        <v>8.566671881909313</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.81767608760842</v>
+        <v>9.575727632456077</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>17.23550614243348</v>
+        <v>11.21306017948485</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.5392527714689</v>
+        <v>31.69688319847119</v>
       </c>
       <c r="C13">
-        <v>13.32446685208895</v>
+        <v>16.41710795473082</v>
       </c>
       <c r="D13">
-        <v>4.563263912877935</v>
+        <v>5.733700437516711</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>19.50589553409988</v>
+        <v>16.3235108309287</v>
       </c>
       <c r="G13">
-        <v>20.5485126995455</v>
+        <v>19.21839016041014</v>
       </c>
       <c r="H13">
-        <v>12.03687560997687</v>
+        <v>6.783497881990518</v>
       </c>
       <c r="I13">
-        <v>18.18659515553713</v>
+        <v>8.585216148653128</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.81475751687489</v>
+        <v>9.556779141435362</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>17.23948568261913</v>
+        <v>11.20449828164017</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.40260292015946</v>
+        <v>31.42282501592482</v>
       </c>
       <c r="C14">
-        <v>13.2854429624154</v>
+        <v>16.317682295653</v>
       </c>
       <c r="D14">
-        <v>4.546522754263369</v>
+        <v>5.694109095430766</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>19.50667401476216</v>
+        <v>16.22559991577911</v>
       </c>
       <c r="G14">
-        <v>20.54972775358404</v>
+        <v>19.07591631106507</v>
       </c>
       <c r="H14">
-        <v>12.0460110312324</v>
+        <v>6.788210187222569</v>
       </c>
       <c r="I14">
-        <v>18.21290610493212</v>
+        <v>8.646233111495762</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.80528742402182</v>
+        <v>9.494888313313531</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>17.25260699203801</v>
+        <v>11.1771713425001</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.31840140935991</v>
+        <v>31.25384739139891</v>
       </c>
       <c r="C15">
-        <v>13.26149100621389</v>
+        <v>16.2565283671684</v>
       </c>
       <c r="D15">
-        <v>4.536228381252243</v>
+        <v>5.669722962175417</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>19.50730081959689</v>
+        <v>16.16590553684534</v>
       </c>
       <c r="G15">
-        <v>20.55070472694126</v>
+        <v>18.98912058610103</v>
       </c>
       <c r="H15">
-        <v>12.05165786265295</v>
+        <v>6.791302680752559</v>
       </c>
       <c r="I15">
-        <v>18.22912243725013</v>
+        <v>8.684015170801155</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.79952375462192</v>
+        <v>9.456905715843861</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>17.26075408065756</v>
+        <v>11.16088786372524</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.82827698910398</v>
+        <v>30.26844511917024</v>
       </c>
       <c r="C16">
-        <v>13.12351706517641</v>
+        <v>15.90225778296253</v>
       </c>
       <c r="D16">
-        <v>4.476633650243159</v>
+        <v>5.527911321668831</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>19.51318914092728</v>
+        <v>15.82816051345422</v>
       </c>
       <c r="G16">
-        <v>20.55986204157333</v>
+        <v>18.49911574667781</v>
       </c>
       <c r="H16">
-        <v>12.08480049135085</v>
+        <v>6.81210100677286</v>
       </c>
       <c r="I16">
-        <v>18.3235863831581</v>
+        <v>8.906475235470115</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.76706832116799</v>
+        <v>9.238165762439161</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>17.30912210724359</v>
+        <v>11.07444769048462</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.52088648303611</v>
+        <v>29.64864519036357</v>
       </c>
       <c r="C17">
-        <v>13.03827128848008</v>
+        <v>15.68157545581243</v>
       </c>
       <c r="D17">
-        <v>4.439548556953387</v>
+        <v>5.439083202464698</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>19.51884779319383</v>
+        <v>15.62490862194104</v>
       </c>
       <c r="G17">
-        <v>20.5686454263464</v>
+        <v>18.20524538204229</v>
       </c>
       <c r="H17">
-        <v>12.10583034258323</v>
+        <v>6.82751705301619</v>
       </c>
       <c r="I17">
-        <v>18.38290664167744</v>
+        <v>9.047951046723169</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.7476765798525</v>
+        <v>9.103058026469839</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>17.34028911082967</v>
+        <v>11.02743789460467</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.34164402184527</v>
+        <v>29.28650939653603</v>
       </c>
       <c r="C18">
-        <v>12.98903249317449</v>
+        <v>15.55344030788605</v>
       </c>
       <c r="D18">
-        <v>4.418029657562615</v>
+        <v>5.387323457779067</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>19.52285329920487</v>
+        <v>15.50948155799671</v>
       </c>
       <c r="G18">
-        <v>20.57485654273323</v>
+        <v>18.03874927940146</v>
       </c>
       <c r="H18">
-        <v>12.11818236867165</v>
+        <v>6.837325777811366</v>
       </c>
       <c r="I18">
-        <v>18.41752955225271</v>
+        <v>9.131051736375614</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.73671610875261</v>
+        <v>9.025028740017456</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>17.35876303149751</v>
+        <v>11.00256295583735</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.28053946908602</v>
+        <v>29.16292486866865</v>
       </c>
       <c r="C19">
-        <v>12.97232676389615</v>
+        <v>15.50985171498972</v>
       </c>
       <c r="D19">
-        <v>4.410711799677371</v>
+        <v>5.369684244346019</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>19.524338314428</v>
+        <v>15.47065653177439</v>
       </c>
       <c r="G19">
-        <v>20.57715817213612</v>
+        <v>17.98281653134254</v>
       </c>
       <c r="H19">
-        <v>12.12240853154669</v>
+        <v>6.840805360420974</v>
       </c>
       <c r="I19">
-        <v>18.42933875768473</v>
+        <v>9.159475098682535</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.73303849185179</v>
+        <v>8.998556463475571</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>17.3651118388144</v>
+        <v>10.9945076244988</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.55386188191966</v>
+        <v>29.71520744940605</v>
       </c>
       <c r="C20">
-        <v>13.04736766051085</v>
+        <v>15.70519274626944</v>
       </c>
       <c r="D20">
-        <v>4.443515947885595</v>
+        <v>5.448608376176782</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>19.51816768492521</v>
+        <v>15.64639281132127</v>
       </c>
       <c r="G20">
-        <v>20.56759035198932</v>
+        <v>18.23626778077253</v>
       </c>
       <c r="H20">
-        <v>12.10356515594841</v>
+        <v>6.825777740229475</v>
       </c>
       <c r="I20">
-        <v>18.37653979468478</v>
+        <v>9.032709533331984</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.74972093072719</v>
+        <v>9.117473916074101</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>17.33691462574196</v>
+        <v>11.03221710106849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.44284452629491</v>
+        <v>31.50355353043958</v>
       </c>
       <c r="C21">
-        <v>13.29691544764863</v>
+        <v>16.34693883615058</v>
       </c>
       <c r="D21">
-        <v>4.551448383681305</v>
+        <v>5.70576624767047</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>19.50641409926993</v>
+        <v>16.25430075891231</v>
       </c>
       <c r="G21">
-        <v>20.54932234594625</v>
+        <v>19.11766593162544</v>
       </c>
       <c r="H21">
-        <v>12.04331708121248</v>
+        <v>6.786782926630804</v>
       </c>
       <c r="I21">
-        <v>18.2051570776172</v>
+        <v>8.628225303184671</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.80806131651893</v>
+        <v>9.5130823802018</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>17.24873003062708</v>
+        <v>11.18510285826098</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.00156050183576</v>
+        <v>32.6226330025183</v>
       </c>
       <c r="C22">
-        <v>13.45786710680652</v>
+        <v>16.75510785663791</v>
       </c>
       <c r="D22">
-        <v>4.620213566971679</v>
+        <v>5.86779051285581</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>19.50544137144239</v>
+        <v>16.66416343134134</v>
       </c>
       <c r="G22">
-        <v>20.54778821240368</v>
+        <v>19.71506114261234</v>
       </c>
       <c r="H22">
-        <v>12.00622885033451</v>
+        <v>6.770426938424659</v>
       </c>
       <c r="I22">
-        <v>18.09762980124628</v>
+        <v>8.381794838724709</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.84785474139166</v>
+        <v>9.768429854368812</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.196010562283</v>
+        <v>11.30526465037683</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.70542662286219</v>
+        <v>32.02988030958053</v>
       </c>
       <c r="C23">
-        <v>13.37217398132102</v>
+        <v>16.53831235937012</v>
       </c>
       <c r="D23">
-        <v>4.583679134399782</v>
+        <v>5.781871864681682</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>19.50534579551309</v>
+        <v>16.44429105709161</v>
       </c>
       <c r="G23">
-        <v>20.54765148856804</v>
+        <v>19.39432181800219</v>
       </c>
       <c r="H23">
-        <v>12.02581395625722</v>
+        <v>6.778284562489267</v>
       </c>
       <c r="I23">
-        <v>18.15460917541485</v>
+        <v>8.511541491262271</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.82646669056596</v>
+        <v>9.6324550388478</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>17.22369640994775</v>
+        <v>11.2392364603435</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.53896154535559</v>
+        <v>29.6851327379245</v>
       </c>
       <c r="C24">
-        <v>13.04325590337793</v>
+        <v>15.69451929374959</v>
       </c>
       <c r="D24">
-        <v>4.441722906654066</v>
+        <v>5.444304197176271</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>19.51847281889602</v>
+        <v>15.63667536345962</v>
       </c>
       <c r="G24">
-        <v>20.5680637343395</v>
+        <v>18.2222348976362</v>
       </c>
       <c r="H24">
-        <v>12.1045884317496</v>
+        <v>6.826561145636374</v>
       </c>
       <c r="I24">
-        <v>18.3794166298085</v>
+        <v>9.039594752142692</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.74879609318891</v>
+        <v>9.11095759082801</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>17.33843850023148</v>
+        <v>11.03004973130776</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.18796805007744</v>
+        <v>26.93990461855196</v>
       </c>
       <c r="C25">
-        <v>12.68071534334377</v>
+        <v>14.73874886023455</v>
       </c>
       <c r="D25">
-        <v>4.281459299898951</v>
+        <v>5.054732698642471</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>19.56131079513816</v>
+        <v>14.82239673933105</v>
       </c>
       <c r="G25">
-        <v>20.63432131975505</v>
+        <v>17.05538934477796</v>
       </c>
       <c r="H25">
-        <v>12.199351828402</v>
+        <v>6.914236016940204</v>
       </c>
       <c r="I25">
-        <v>18.64115931641849</v>
+        <v>9.674351831914652</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>10.67242810983474</v>
+        <v>8.536566402365029</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>17.48311403341769</v>
+        <v>10.88638355719835</v>
       </c>
     </row>
   </sheetData>
